--- a/ESP32/BOM_ESP32.xlsx
+++ b/ESP32/BOM_ESP32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df288a9f25243d92/Research/4-D-Avionic-Systems/EC191_Cirr/AutonoMouse/ESP32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_A4743FB22242ABB19E13D11929075D3FDE875012" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76014AEB-A4D1-4874-BAA5-B634545336A1}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_A4743FB22242ABB19E13D11929075D3FDE875012" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D55A1FD-5281-487B-BF55-1F5F12529BDC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="1545" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutonoMouse wRC" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Part</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>$0.40 per in^2</t>
+  </si>
+  <si>
+    <t>*0.08</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -437,7 +440,7 @@
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -445,7 +448,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -475,7 +478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,7 +493,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -505,7 +508,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,7 +523,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -535,7 +538,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,7 +553,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -565,7 +568,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -580,7 +583,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -594,38 +597,37 @@
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="3">
         <v>0.02</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>42</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="3">
         <v>0.02</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -640,7 +642,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
@@ -658,7 +660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -746,7 +748,7 @@
       </c>
       <c r="D21" s="7">
         <f>SUM(D4:D20)</f>
-        <v>18.93</v>
+        <v>17.97</v>
       </c>
     </row>
   </sheetData>
